--- a/Team-Data/2011-12/3-25-2011-12.xlsx
+++ b/Team-Data/2011-12/3-25-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6</v>
+        <v>0.592</v>
       </c>
       <c r="H2" t="n">
-        <v>49.2</v>
+        <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.443</v>
@@ -696,76 +763,76 @@
         <v>19.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O2" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="P2" t="n">
-        <v>20.9</v>
+        <v>20.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.729</v>
+        <v>0.726</v>
       </c>
       <c r="R2" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="T2" t="n">
-        <v>41.5</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V2" t="n">
         <v>14</v>
       </c>
       <c r="W2" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>19</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>16</v>
-      </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -780,46 +847,46 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.542</v>
+        <v>0.532</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,34 +933,34 @@
         <v>35.1</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M3" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O3" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.778</v>
+        <v>0.775</v>
       </c>
       <c r="R3" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T3" t="n">
         <v>38.3</v>
@@ -905,13 +972,13 @@
         <v>15.1</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
         <v>20.2</v>
@@ -920,25 +987,25 @@
         <v>18.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
         <v>12</v>
       </c>
-      <c r="AF3" t="n">
-        <v>11</v>
-      </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>21</v>
@@ -965,7 +1032,7 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,10 +1044,10 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW3" t="n">
         <v>21</v>
@@ -989,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>23</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1147,7 +1214,7 @@
         <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>24</v>
@@ -1162,7 +1229,7 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1177,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
@@ -1323,13 +1390,13 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1347,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>0.37</v>
+        <v>0.378</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O6" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.706</v>
+        <v>0.703</v>
       </c>
       <c r="R6" t="n">
         <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T6" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y6" t="n">
         <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA6" t="n">
         <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.7</v>
+        <v>-4.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1490,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
@@ -1508,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
@@ -1526,13 +1593,13 @@
         <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1544,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -1660,16 +1727,16 @@
         <v>8</v>
       </c>
       <c r="AF7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG7" t="n">
         <v>11</v>
       </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>11</v>
@@ -1690,13 +1757,13 @@
         <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
         <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.531</v>
+        <v>0.542</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
         <v>81.5</v>
@@ -1785,19 +1852,19 @@
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.323</v>
+        <v>0.325</v>
       </c>
       <c r="O8" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P8" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R8" t="n">
         <v>11.1</v>
@@ -1809,16 +1876,16 @@
         <v>43.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>15.9</v>
       </c>
       <c r="W8" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
         <v>6.4</v>
@@ -1830,31 +1897,31 @@
         <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
@@ -1866,7 +1933,7 @@
         <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>17</v>
@@ -1887,16 +1954,16 @@
         <v>5</v>
       </c>
       <c r="AU8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
         <v>28</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>25</v>
@@ -2030,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>27</v>
@@ -2075,7 +2142,7 @@
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>0.426</v>
+        <v>0.435</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J10" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L10" t="n">
         <v>8.1</v>
@@ -2152,34 +2219,34 @@
         <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O10" t="n">
         <v>15.4</v>
       </c>
       <c r="P10" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.772</v>
+        <v>0.768</v>
       </c>
       <c r="R10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T10" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U10" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V10" t="n">
         <v>14</v>
       </c>
       <c r="W10" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
@@ -2191,22 +2258,22 @@
         <v>21.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2215,19 +2282,19 @@
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
       </c>
       <c r="AM10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN10" t="n">
         <v>2</v>
@@ -2239,13 +2306,13 @@
         <v>28</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
         <v>27</v>
@@ -2254,25 +2321,25 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>5</v>
@@ -2400,7 +2467,7 @@
         <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK11" t="n">
         <v>11</v>
@@ -2427,10 +2494,10 @@
         <v>13</v>
       </c>
       <c r="AS11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT11" t="n">
         <v>17</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>16</v>
       </c>
       <c r="AU11" t="n">
         <v>15</v>
@@ -2448,16 +2515,16 @@
         <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,25 +2670,25 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2630,7 +2697,7 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
@@ -2758,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>14</v>
@@ -2791,37 +2858,37 @@
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX13" t="n">
         <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.612</v>
+        <v>0.625</v>
       </c>
       <c r="H14" t="n">
         <v>48.6</v>
       </c>
       <c r="I14" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J14" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L14" t="n">
         <v>5.4</v>
@@ -2880,25 +2947,25 @@
         <v>17.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.314</v>
+        <v>0.312</v>
       </c>
       <c r="O14" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P14" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.755</v>
+        <v>0.752</v>
       </c>
       <c r="R14" t="n">
         <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="T14" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U14" t="n">
         <v>21.7</v>
@@ -2925,25 +2992,25 @@
         <v>95.90000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2952,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
@@ -2967,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>15</v>
@@ -2979,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -2997,7 +3064,7 @@
         <v>3</v>
       </c>
       <c r="BA14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB14" t="n">
         <v>17</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
         <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>0.553</v>
+        <v>0.543</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L15" t="n">
         <v>3.9</v>
@@ -3062,13 +3129,13 @@
         <v>11.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="Q15" t="n">
         <v>0.75</v>
@@ -3077,13 +3144,13 @@
         <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T15" t="n">
         <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V15" t="n">
         <v>14.9</v>
@@ -3098,28 +3165,28 @@
         <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>9</v>
@@ -3131,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3149,7 +3216,7 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3170,22 +3237,22 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
         <v>35</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>0.745</v>
+        <v>0.761</v>
       </c>
       <c r="H16" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J16" t="n">
-        <v>79.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K16" t="n">
         <v>0.481</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O16" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P16" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T16" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
         <v>9.1</v>
@@ -3286,13 +3353,13 @@
         <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.1</v>
+        <v>101.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3301,10 +3368,10 @@
         <v>2</v>
       </c>
       <c r="AG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH16" t="n">
         <v>3</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>4</v>
       </c>
       <c r="AI16" t="n">
         <v>4</v>
@@ -3316,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN16" t="n">
         <v>4</v>
@@ -3331,22 +3398,22 @@
         <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV16" t="n">
         <v>17</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>-0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>9</v>
@@ -3495,10 +3562,10 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
         <v>13</v>
@@ -3510,13 +3577,13 @@
         <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ17" t="n">
         <v>3</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
         <v>28</v>
@@ -3537,19 +3604,19 @@
         <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -3578,61 +3645,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
         <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>0.48</v>
+        <v>0.469</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="N18" t="n">
         <v>0.338</v>
       </c>
       <c r="O18" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P18" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T18" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U18" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W18" t="n">
         <v>7.1</v>
@@ -3647,19 +3714,19 @@
         <v>18.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>19</v>
@@ -3668,22 +3735,22 @@
         <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
       </c>
       <c r="AM18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN18" t="n">
         <v>18</v>
@@ -3692,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ18" t="n">
         <v>9</v>
@@ -3701,7 +3768,7 @@
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
@@ -3710,16 +3777,16 @@
         <v>24</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
       </c>
       <c r="AY18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>8</v>
@@ -3731,7 +3798,7 @@
         <v>5</v>
       </c>
       <c r="BC18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3959,7 @@
         <v>25</v>
       </c>
       <c r="AV19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>19</v>
@@ -3901,7 +3968,7 @@
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4050,7 +4117,7 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4065,10 +4132,10 @@
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4086,7 +4153,7 @@
         <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>18</v>
@@ -4220,7 +4287,7 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.755</v>
+        <v>0.75</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,76 +4391,76 @@
         <v>37.5</v>
       </c>
       <c r="J22" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O22" t="n">
         <v>21.4</v>
       </c>
       <c r="P22" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q22" t="n">
         <v>0.797</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V22" t="n">
         <v>16.6</v>
       </c>
       <c r="W22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AA22" t="n">
         <v>20.3</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
         <v>103.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
@@ -4441,13 +4508,13 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4456,10 +4523,10 @@
         <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4578,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4611,22 +4678,22 @@
         <v>18</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4635,14 +4702,14 @@
         <v>4</v>
       </c>
       <c r="BA23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC23" t="n">
         <v>9</v>
       </c>
-      <c r="BB23" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>10</v>
-      </c>
       <c r="BD23" t="n">
         <v>10</v>
       </c>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -4670,46 +4737,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.551</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J24" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
       <c r="O24" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="P24" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.733</v>
+        <v>0.737</v>
       </c>
       <c r="R24" t="n">
         <v>10.6</v>
@@ -4718,19 +4785,19 @@
         <v>32.9</v>
       </c>
       <c r="T24" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V24" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>4.9</v>
@@ -4742,43 +4809,43 @@
         <v>16.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>6</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4787,7 +4854,7 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
         <v>22</v>
@@ -4796,22 +4863,22 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4820,10 +4887,10 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4919,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L25" t="n">
         <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N25" t="n">
         <v>0.345</v>
@@ -4888,49 +4955,49 @@
         <v>15.8</v>
       </c>
       <c r="P25" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
         <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
         <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V25" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X25" t="n">
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4945,16 +5012,16 @@
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>14</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
@@ -4963,22 +5030,22 @@
         <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>5</v>
@@ -4987,25 +5054,25 @@
         <v>12</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -5034,49 +5101,49 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" t="n">
         <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.469</v>
+        <v>0.458</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
         <v>6.8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N26" t="n">
         <v>0.336</v>
       </c>
       <c r="O26" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P26" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.795</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
         <v>30.1</v>
@@ -5088,7 +5155,7 @@
         <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W26" t="n">
         <v>8.300000000000001</v>
@@ -5100,19 +5167,19 @@
         <v>4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AA26" t="n">
         <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5130,10 +5197,10 @@
         <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>14</v>
@@ -5160,19 +5227,19 @@
         <v>19</v>
       </c>
       <c r="AT26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU26" t="n">
         <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AW26" t="n">
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>10</v>
@@ -5181,10 +5248,10 @@
         <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5333,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5342,7 +5409,7 @@
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
@@ -5351,7 +5418,7 @@
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.702</v>
+        <v>0.696</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
@@ -5425,37 +5492,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.389</v>
+        <v>0.394</v>
       </c>
       <c r="O28" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R28" t="n">
         <v>10.3</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T28" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U28" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V28" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W28" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
         <v>4.4</v>
@@ -5470,13 +5537,13 @@
         <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5518,10 +5585,10 @@
         <v>27</v>
       </c>
       <c r="AR28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>13</v>
@@ -5530,22 +5597,22 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AX28" t="n">
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
@@ -5697,19 +5764,19 @@
         <v>20</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="n">
         <v>26</v>
       </c>
       <c r="F30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.531</v>
+        <v>0.542</v>
       </c>
       <c r="H30" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>84.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.307</v>
+        <v>0.308</v>
       </c>
       <c r="O30" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P30" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="S30" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T30" t="n">
-        <v>43.4</v>
+        <v>43</v>
       </c>
       <c r="U30" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V30" t="n">
         <v>14</v>
@@ -5828,40 +5895,40 @@
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>99</v>
+        <v>98.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5879,22 +5946,22 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS30" t="n">
         <v>17</v>
       </c>
-      <c r="AR30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>16</v>
-      </c>
       <c r="AT30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU30" t="n">
         <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5909,13 +5976,13 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
@@ -5944,49 +6011,49 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>0.229</v>
+        <v>0.234</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
         <v>15.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.317</v>
+        <v>0.319</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
         <v>29.7</v>
@@ -5995,7 +6062,7 @@
         <v>41.6</v>
       </c>
       <c r="U31" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="V31" t="n">
         <v>15.3</v>
@@ -6004,31 +6071,31 @@
         <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y31" t="n">
         <v>4.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA31" t="n">
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.4</v>
+        <v>-7.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6040,10 +6107,10 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6055,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
@@ -6070,31 +6137,31 @@
         <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-25-2011-12</t>
+          <t>2012-03-25</t>
         </is>
       </c>
     </row>
